--- a/data/input/absenteeism_data_6.xlsx
+++ b/data/input/absenteeism_data_6.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45867</v>
+        <v>17323</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agatha da Luz</t>
+          <t>Caroline Duarte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>11873.43</v>
+        <v>5512.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34883</v>
+        <v>75992</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicole Campos</t>
+          <t>Julia Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>3144.79</v>
+        <v>8254.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64002</v>
+        <v>59561</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Santos</t>
+          <t>Daniela Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>8574.950000000001</v>
+        <v>7857.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22158</v>
+        <v>59227</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rebeca Silveira</t>
+          <t>Theo Campos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,24 +584,24 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>8684.719999999999</v>
+        <v>8947.030000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84408</v>
+        <v>20819</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Theo Monteiro</t>
+          <t>Rebeca Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,114 +610,114 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>2810.3</v>
+        <v>5142.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19720</v>
+        <v>88486</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur Novaes</t>
+          <t>João Lucas Rodrigues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>10257.61</v>
+        <v>3919.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21194</v>
+        <v>98138</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carolina Caldeira</t>
+          <t>Sra. Clara da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>4389.07</v>
+        <v>5317.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79116</v>
+        <v>95370</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bernardo da Mata</t>
+          <t>Sra. Alana Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>2646.6</v>
+        <v>3713.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75501</v>
+        <v>64711</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Manuela Monteiro</t>
+          <t>Antônio da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>3532.03</v>
+        <v>7965.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19067</v>
+        <v>92789</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Gabriel Almeida</t>
+          <t>Bianca Gomes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>5250.15</v>
+        <v>11717.86</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_6.xlsx
+++ b/data/input/absenteeism_data_6.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17323</v>
+        <v>25228</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caroline Duarte</t>
+          <t>Sra. Stella Viana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,143 +494,143 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>5512.26</v>
+        <v>6531.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75992</v>
+        <v>31023</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julia Ramos</t>
+          <t>Marcela da Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>8254.76</v>
+        <v>6225.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59561</v>
+        <v>44280</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniela Costela</t>
+          <t>Alexandre Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>7857.25</v>
+        <v>11925.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59227</v>
+        <v>89716</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Theo Campos</t>
+          <t>Sra. Julia Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>8947.030000000001</v>
+        <v>3704.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20819</v>
+        <v>23195</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rebeca Rocha</t>
+          <t>Nathan Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>5142.82</v>
+        <v>2832.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88486</v>
+        <v>50366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Lucas Rodrigues</t>
+          <t>João Felipe Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,24 +642,24 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>3919.85</v>
+        <v>3791.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98138</v>
+        <v>1603</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Clara da Luz</t>
+          <t>Clarice Pires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>5317.31</v>
+        <v>6768.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95370</v>
+        <v>58846</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Alana Costa</t>
+          <t>Rafaela Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>3713.98</v>
+        <v>7483.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64711</v>
+        <v>24398</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antônio da Luz</t>
+          <t>Isaac Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>7965.83</v>
+        <v>8072.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>92789</v>
+        <v>31865</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bianca Gomes</t>
+          <t>Cecília Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>11717.86</v>
+        <v>6539.18</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_6.xlsx
+++ b/data/input/absenteeism_data_6.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25228</v>
+        <v>17427</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Stella Viana</t>
+          <t>Ana Laura Monteiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>6531.95</v>
+        <v>7898.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31023</v>
+        <v>25717</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcela da Cruz</t>
+          <t>Enzo da Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>6225.8</v>
+        <v>6260.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44280</v>
+        <v>21079</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre Cardoso</t>
+          <t>Dr. Lucca Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>11925.3</v>
+        <v>4880.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89716</v>
+        <v>37486</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Julia Martins</t>
+          <t>Srta. Raquel da Rosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>3704.8</v>
+        <v>10046.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23195</v>
+        <v>49411</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nathan Nunes</t>
+          <t>Milena Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>2832.78</v>
+        <v>5624.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50366</v>
+        <v>68194</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Felipe Cavalcanti</t>
+          <t>Julia Porto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>3791.59</v>
+        <v>8599.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1603</v>
+        <v>16041</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clarice Pires</t>
+          <t>Ana Júlia Alves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>6768.48</v>
+        <v>4059.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58846</v>
+        <v>36293</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafaela Martins</t>
+          <t>Nathan da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>7483.06</v>
+        <v>11329.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24398</v>
+        <v>85850</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isaac Duarte</t>
+          <t>Sr. Juan Pinto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>8072.1</v>
+        <v>2809.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31865</v>
+        <v>43951</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cecília Araújo</t>
+          <t>Breno da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>6539.18</v>
+        <v>9571.049999999999</v>
       </c>
     </row>
   </sheetData>
